--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="2040" windowWidth="31520" windowHeight="24200" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="10020" yWindow="2040" windowWidth="31520" windowHeight="24200" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Access Time" sheetId="2" r:id="rId2"/>
     <sheet name="NumberOfElements " sheetId="3" r:id="rId3"/>
+    <sheet name="Changes" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>ModelSize</t>
   </si>
@@ -40,12 +41,21 @@
   <si>
     <t>Width-First Scalability Generation</t>
   </si>
+  <si>
+    <t>Update Time</t>
+  </si>
+  <si>
+    <t>Percentage of change (of 1.313.747 elts)</t>
+  </si>
+  <si>
+    <t>Commit and Send Time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -73,6 +83,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,9 +126,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -895,11 +920,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2137583800"/>
-        <c:axId val="-2112927192"/>
+        <c:axId val="-2131298328"/>
+        <c:axId val="-2131293368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2137583800"/>
+        <c:axId val="-2131298328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,7 +934,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112927192"/>
+        <c:crossAx val="-2131293368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -917,7 +942,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112927192"/>
+        <c:axId val="-2131293368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -928,14 +953,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137583800"/>
+        <c:crossAx val="-2131298328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1464,11 +1488,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2110489640"/>
-        <c:axId val="-2110012776"/>
+        <c:axId val="2137095352"/>
+        <c:axId val="2137089768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2110489640"/>
+        <c:axId val="2137095352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1508,7 +1532,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110012776"/>
+        <c:crossAx val="2137089768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1517,7 +1541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110012776"/>
+        <c:axId val="2137089768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1554,7 +1578,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110489640"/>
+        <c:crossAx val="2137095352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0"/>
@@ -2082,11 +2106,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2106464552"/>
-        <c:axId val="-2106313944"/>
+        <c:axId val="2137035464"/>
+        <c:axId val="2137029816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2106464552"/>
+        <c:axId val="2137035464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2126,7 +2150,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106313944"/>
+        <c:crossAx val="2137029816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2135,7 +2159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2106313944"/>
+        <c:axId val="2137029816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2162,14 +2186,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106464552"/>
+        <c:crossAx val="2137035464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -2207,6 +2230,364 @@
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="0" orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.123574073108411"/>
+          <c:y val="0.0601851851851852"/>
+          <c:w val="0.840590811910101"/>
+          <c:h val="0.792241359738289"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Changes!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Update Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Changes!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Changes!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5637.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10184.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14731.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19359.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23529.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30097.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37173.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40702.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45886.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55696.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Changes!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Commit and Send Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Changes!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Changes!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2762.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8092.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9667.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12528.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16192.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20469.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21411.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26583.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25206.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26449.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2135507784"/>
+        <c:axId val="2135501656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2135507784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Percentage of change (of 1.313.747 elts)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.23898228781005"/>
+              <c:y val="0.90914376528622"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2135501656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2135501656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.016261667622673"/>
+              <c:y val="0.339046655865265"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2135507784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.151083242078184"/>
+          <c:y val="0.162096159998349"/>
+          <c:w val="0.405530409692166"/>
+          <c:h val="0.163352700178533"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2295,6 +2676,41 @@
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3107,7 +3523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -4033,4 +4449,177 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5637</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2762</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>10184</v>
+      </c>
+      <c r="C3" s="5">
+        <v>8092</v>
+      </c>
+      <c r="D3" s="5">
+        <v>18276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>14731</v>
+      </c>
+      <c r="C4" s="5">
+        <v>9667</v>
+      </c>
+      <c r="D4" s="5">
+        <v>24398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>19359</v>
+      </c>
+      <c r="C5" s="5">
+        <v>12528</v>
+      </c>
+      <c r="D5" s="5">
+        <v>31887</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>23529</v>
+      </c>
+      <c r="C6" s="5">
+        <v>16192</v>
+      </c>
+      <c r="D6" s="5">
+        <v>39721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>30097</v>
+      </c>
+      <c r="C7" s="5">
+        <v>20469</v>
+      </c>
+      <c r="D7" s="5">
+        <v>50566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>37173</v>
+      </c>
+      <c r="C8" s="5">
+        <v>21411</v>
+      </c>
+      <c r="D8" s="5">
+        <v>58584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>40702</v>
+      </c>
+      <c r="C9" s="5">
+        <v>26583</v>
+      </c>
+      <c r="D9" s="5">
+        <v>67285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45886</v>
+      </c>
+      <c r="C10" s="5">
+        <v>25206</v>
+      </c>
+      <c r="D10" s="5">
+        <v>71092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>55696</v>
+      </c>
+      <c r="C11" s="5">
+        <v>26449</v>
+      </c>
+      <c r="D11" s="5">
+        <v>82145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="2040" windowWidth="31520" windowHeight="24200" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="33900" yWindow="-10340" windowWidth="29240" windowHeight="18440" tabRatio="500" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Access Time" sheetId="2" r:id="rId2"/>
     <sheet name="NumberOfElements " sheetId="3" r:id="rId3"/>
     <sheet name="Changes" sheetId="4" r:id="rId4"/>
+    <sheet name="Distribution" sheetId="5" r:id="rId5"/>
+    <sheet name="Distribution Raw Data" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>ModelSize</t>
   </si>
@@ -50,12 +53,24 @@
   <si>
     <t>Commit and Send Time</t>
   </si>
+  <si>
+    <t>Number of Nodes</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -95,6 +110,13 @@
       <color theme="1"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -113,7 +135,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -125,26 +147,91 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -920,11 +1007,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2131298328"/>
-        <c:axId val="-2131293368"/>
+        <c:axId val="-2105310792"/>
+        <c:axId val="-2105313784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2131298328"/>
+        <c:axId val="-2105310792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -934,7 +1021,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131293368"/>
+        <c:crossAx val="-2105313784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -942,7 +1029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131293368"/>
+        <c:axId val="-2105313784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,7 +1040,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131298328"/>
+        <c:crossAx val="-2105310792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1488,11 +1575,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2137095352"/>
-        <c:axId val="2137089768"/>
+        <c:axId val="-2105400040"/>
+        <c:axId val="-2105405368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2137095352"/>
+        <c:axId val="-2105400040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1532,7 +1619,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137089768"/>
+        <c:crossAx val="-2105405368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1541,7 +1628,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137089768"/>
+        <c:axId val="-2105405368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1578,7 +1665,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137095352"/>
+        <c:crossAx val="-2105400040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0"/>
@@ -2106,11 +2193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2137035464"/>
-        <c:axId val="2137029816"/>
+        <c:axId val="2133063096"/>
+        <c:axId val="2133737672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2137035464"/>
+        <c:axId val="2133063096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2150,7 +2237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137029816"/>
+        <c:crossAx val="2133737672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2159,7 +2246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137029816"/>
+        <c:axId val="2133737672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2192,7 +2279,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137035464"/>
+        <c:crossAx val="2133063096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -2463,11 +2550,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2135507784"/>
-        <c:axId val="2135501656"/>
+        <c:axId val="-2122882024"/>
+        <c:axId val="-2122876552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2135507784"/>
+        <c:axId val="-2122882024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2503,7 +2590,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135501656"/>
+        <c:crossAx val="-2122876552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2511,7 +2598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135501656"/>
+        <c:axId val="-2122876552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2548,7 +2635,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135507784"/>
+        <c:crossAx val="-2122882024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -4455,7 +4542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
@@ -4622,4 +4709,5867 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <f>'Distribution Raw Data'!A2</f>
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <f>'Distribution Raw Data'!A3</f>
+        <v>147</v>
+      </c>
+      <c r="D2">
+        <f>'Distribution Raw Data'!A4</f>
+        <v>102.68085106382979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f>'Distribution Raw Data'!B$2</f>
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <f>'Distribution Raw Data'!B$3</f>
+        <v>155</v>
+      </c>
+      <c r="D3">
+        <f>'Distribution Raw Data'!B$4</f>
+        <v>63.584615384615383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <f>'Distribution Raw Data'!C$2</f>
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <f>'Distribution Raw Data'!C$3</f>
+        <v>244</v>
+      </c>
+      <c r="D4">
+        <f>'Distribution Raw Data'!C$4</f>
+        <v>86.40650406504065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5" s="6">
+        <v>50</v>
+      </c>
+      <c r="C5" s="6">
+        <v>560</v>
+      </c>
+      <c r="D5" s="6">
+        <v>131.8514457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C127"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <f>MIN(A5:A1000)</f>
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <f>MIN(B5:B1000)</f>
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <f>MIN(C5:C1000)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <f>MAX(A5:A1000)</f>
+        <v>147</v>
+      </c>
+      <c r="B3">
+        <f>MAX(B5:B1000)</f>
+        <v>155</v>
+      </c>
+      <c r="C3">
+        <f>MAX(C5:C1000)</f>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <f>AVERAGE(A5:A1000)</f>
+        <v>102.68085106382979</v>
+      </c>
+      <c r="B4">
+        <f>AVERAGE(B5:B1000)</f>
+        <v>63.584615384615383</v>
+      </c>
+      <c r="C4">
+        <f>AVERAGE(C5:C1000)</f>
+        <v>86.40650406504065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>137</v>
+      </c>
+      <c r="B5">
+        <v>132</v>
+      </c>
+      <c r="C5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>136</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>136</v>
+      </c>
+      <c r="C7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>144</v>
+      </c>
+      <c r="B8">
+        <v>137</v>
+      </c>
+      <c r="C8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>144</v>
+      </c>
+      <c r="B9">
+        <v>137</v>
+      </c>
+      <c r="C9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>146</v>
+      </c>
+      <c r="B10">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>146</v>
+      </c>
+      <c r="B11">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>144</v>
+      </c>
+      <c r="B14">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>144</v>
+      </c>
+      <c r="B15">
+        <v>59</v>
+      </c>
+      <c r="C15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>138</v>
+      </c>
+      <c r="B16">
+        <v>59</v>
+      </c>
+      <c r="C16">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>139</v>
+      </c>
+      <c r="B17">
+        <v>58</v>
+      </c>
+      <c r="C17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>59</v>
+      </c>
+      <c r="C18">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>58</v>
+      </c>
+      <c r="C19">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>141</v>
+      </c>
+      <c r="B20">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>141</v>
+      </c>
+      <c r="B21">
+        <v>48</v>
+      </c>
+      <c r="C21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>147</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>147</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>141</v>
+      </c>
+      <c r="B24">
+        <v>48</v>
+      </c>
+      <c r="C24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>141</v>
+      </c>
+      <c r="B25">
+        <v>52</v>
+      </c>
+      <c r="C25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>39</v>
+      </c>
+      <c r="B27">
+        <v>52</v>
+      </c>
+      <c r="C27">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>147</v>
+      </c>
+      <c r="B28">
+        <v>52</v>
+      </c>
+      <c r="C28">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>147</v>
+      </c>
+      <c r="B29">
+        <v>52</v>
+      </c>
+      <c r="C29">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>140</v>
+      </c>
+      <c r="B30">
+        <v>54</v>
+      </c>
+      <c r="C30">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>140</v>
+      </c>
+      <c r="B31">
+        <v>53</v>
+      </c>
+      <c r="C31">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>142</v>
+      </c>
+      <c r="B32">
+        <v>54</v>
+      </c>
+      <c r="C32">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>142</v>
+      </c>
+      <c r="B33">
+        <v>54</v>
+      </c>
+      <c r="C33">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>142</v>
+      </c>
+      <c r="B34">
+        <v>54</v>
+      </c>
+      <c r="C34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>142</v>
+      </c>
+      <c r="B35">
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>145</v>
+      </c>
+      <c r="B36">
+        <v>44</v>
+      </c>
+      <c r="C36">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>145</v>
+      </c>
+      <c r="B37">
+        <v>45</v>
+      </c>
+      <c r="C37">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>33</v>
+      </c>
+      <c r="B38">
+        <v>44</v>
+      </c>
+      <c r="C38">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>141</v>
+      </c>
+      <c r="B40">
+        <v>48</v>
+      </c>
+      <c r="C40">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>141</v>
+      </c>
+      <c r="B41">
+        <v>49</v>
+      </c>
+      <c r="C41">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>139</v>
+      </c>
+      <c r="B42">
+        <v>49</v>
+      </c>
+      <c r="C42">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>139</v>
+      </c>
+      <c r="B43">
+        <v>48</v>
+      </c>
+      <c r="C43">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>39</v>
+      </c>
+      <c r="B44">
+        <v>49</v>
+      </c>
+      <c r="C44">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>39</v>
+      </c>
+      <c r="B45">
+        <v>46</v>
+      </c>
+      <c r="C45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>33</v>
+      </c>
+      <c r="B46">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>34</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>43</v>
+      </c>
+      <c r="B48">
+        <v>49</v>
+      </c>
+      <c r="C48">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>43</v>
+      </c>
+      <c r="B49">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>38</v>
+      </c>
+      <c r="B50">
+        <v>155</v>
+      </c>
+      <c r="C50">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>38</v>
+      </c>
+      <c r="B51">
+        <v>155</v>
+      </c>
+      <c r="C51">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="B52">
+        <v>155</v>
+      </c>
+      <c r="C52">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="B53">
+        <v>155</v>
+      </c>
+      <c r="C53">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="B54">
+        <v>155</v>
+      </c>
+      <c r="C54">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55">
+        <v>52</v>
+      </c>
+      <c r="C55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="B56">
+        <v>52</v>
+      </c>
+      <c r="C56">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="B57">
+        <v>52</v>
+      </c>
+      <c r="C57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58">
+        <v>52</v>
+      </c>
+      <c r="C58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="B59">
+        <v>53</v>
+      </c>
+      <c r="C59">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60">
+        <v>48</v>
+      </c>
+      <c r="C60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61">
+        <v>48</v>
+      </c>
+      <c r="C61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="B62">
+        <v>47</v>
+      </c>
+      <c r="C62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63">
+        <v>48</v>
+      </c>
+      <c r="C63">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="B64">
+        <v>48</v>
+      </c>
+      <c r="C64">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65">
+        <v>47</v>
+      </c>
+      <c r="C65">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66">
+        <v>47</v>
+      </c>
+      <c r="C66">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67">
+        <v>48</v>
+      </c>
+      <c r="C67">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68">
+        <v>47</v>
+      </c>
+      <c r="C68">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69">
+        <v>47</v>
+      </c>
+      <c r="C69">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="C70">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="C71">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="C72">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="C73">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="C74">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="C75">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="C76">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="C77">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="C78">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="C79">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="C80">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:I841"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="3:9">
+      <c r="C1">
+        <v>82</v>
+      </c>
+      <c r="F1">
+        <v>85</v>
+      </c>
+      <c r="G1">
+        <v>84</v>
+      </c>
+      <c r="I1">
+        <f>MIN(C:G)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="3:9">
+      <c r="C2">
+        <v>57</v>
+      </c>
+      <c r="F2">
+        <v>57</v>
+      </c>
+      <c r="I2">
+        <f>MAX(C:G)</f>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9">
+      <c r="C3">
+        <v>61</v>
+      </c>
+      <c r="F3">
+        <v>66</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGE(C:G)</f>
+        <v>131.85144566301096</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="C4">
+        <v>74</v>
+      </c>
+      <c r="F4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9">
+      <c r="C5">
+        <v>76</v>
+      </c>
+      <c r="F5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9">
+      <c r="C6">
+        <v>86</v>
+      </c>
+      <c r="F6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7">
+        <v>95</v>
+      </c>
+      <c r="F7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8">
+        <v>99</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9">
+        <v>103</v>
+      </c>
+      <c r="F9">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10">
+        <v>173</v>
+      </c>
+      <c r="F10">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11">
+        <v>206</v>
+      </c>
+      <c r="D11">
+        <v>87</v>
+      </c>
+      <c r="E11">
+        <v>83</v>
+      </c>
+      <c r="F11">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12">
+        <v>560</v>
+      </c>
+      <c r="D12">
+        <v>57</v>
+      </c>
+      <c r="E12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13">
+        <v>560</v>
+      </c>
+      <c r="D13">
+        <v>61</v>
+      </c>
+      <c r="E13">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14">
+        <v>559</v>
+      </c>
+      <c r="D14">
+        <v>61</v>
+      </c>
+      <c r="E14">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15">
+        <v>559</v>
+      </c>
+      <c r="D15">
+        <v>65</v>
+      </c>
+      <c r="E15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16">
+        <v>559</v>
+      </c>
+      <c r="D16">
+        <v>67</v>
+      </c>
+      <c r="E16">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17">
+        <v>559</v>
+      </c>
+      <c r="D17">
+        <v>67</v>
+      </c>
+      <c r="E17">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18">
+        <v>559</v>
+      </c>
+      <c r="D18">
+        <v>69</v>
+      </c>
+      <c r="E18">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19">
+        <v>495</v>
+      </c>
+      <c r="D19">
+        <v>70</v>
+      </c>
+      <c r="E19">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20">
+        <v>495</v>
+      </c>
+      <c r="D20">
+        <v>74</v>
+      </c>
+      <c r="E20">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21">
+        <v>495</v>
+      </c>
+      <c r="D21">
+        <v>74</v>
+      </c>
+      <c r="E21">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22">
+        <v>495</v>
+      </c>
+      <c r="D22">
+        <v>74</v>
+      </c>
+      <c r="E22">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="C23">
+        <v>495</v>
+      </c>
+      <c r="D23">
+        <v>75</v>
+      </c>
+      <c r="E23">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24">
+        <v>495</v>
+      </c>
+      <c r="D24">
+        <v>75</v>
+      </c>
+      <c r="E24">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25">
+        <v>455</v>
+      </c>
+      <c r="D25">
+        <v>76</v>
+      </c>
+      <c r="E25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26">
+        <v>454</v>
+      </c>
+      <c r="D26">
+        <v>76</v>
+      </c>
+      <c r="E26">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27">
+        <v>454</v>
+      </c>
+      <c r="D27">
+        <v>79</v>
+      </c>
+      <c r="E27">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="C28">
+        <v>454</v>
+      </c>
+      <c r="D28">
+        <v>79</v>
+      </c>
+      <c r="E28">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29">
+        <v>454</v>
+      </c>
+      <c r="D29">
+        <v>79</v>
+      </c>
+      <c r="E29">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30">
+        <v>230</v>
+      </c>
+      <c r="D30">
+        <v>80</v>
+      </c>
+      <c r="E30">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31">
+        <v>228</v>
+      </c>
+      <c r="D31">
+        <v>81</v>
+      </c>
+      <c r="E31">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32">
+        <v>222</v>
+      </c>
+      <c r="D32">
+        <v>83</v>
+      </c>
+      <c r="E32">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33">
+        <v>214</v>
+      </c>
+      <c r="D33">
+        <v>83</v>
+      </c>
+      <c r="E33">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34">
+        <v>209</v>
+      </c>
+      <c r="D34">
+        <v>84</v>
+      </c>
+      <c r="E34">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35">
+        <v>208</v>
+      </c>
+      <c r="D35">
+        <v>84</v>
+      </c>
+      <c r="E35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36">
+        <v>206</v>
+      </c>
+      <c r="D36">
+        <v>84</v>
+      </c>
+      <c r="E36">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37">
+        <v>206</v>
+      </c>
+      <c r="D37">
+        <v>89</v>
+      </c>
+      <c r="E37">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38">
+        <v>203</v>
+      </c>
+      <c r="D38">
+        <v>89</v>
+      </c>
+      <c r="E38">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39">
+        <v>203</v>
+      </c>
+      <c r="D39">
+        <v>90</v>
+      </c>
+      <c r="E39">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40">
+        <v>202</v>
+      </c>
+      <c r="D40">
+        <v>90</v>
+      </c>
+      <c r="E40">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41">
+        <v>201</v>
+      </c>
+      <c r="D41">
+        <v>91</v>
+      </c>
+      <c r="E41">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42">
+        <v>201</v>
+      </c>
+      <c r="D42">
+        <v>91</v>
+      </c>
+      <c r="E42">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43">
+        <v>201</v>
+      </c>
+      <c r="D43">
+        <v>93</v>
+      </c>
+      <c r="E43">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44">
+        <v>201</v>
+      </c>
+      <c r="D44">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="C45">
+        <v>201</v>
+      </c>
+      <c r="D45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="C46">
+        <v>200</v>
+      </c>
+      <c r="D46">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="C47">
+        <v>199</v>
+      </c>
+      <c r="D47">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="C48">
+        <v>199</v>
+      </c>
+      <c r="D48">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49">
+        <v>199</v>
+      </c>
+      <c r="D49">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50">
+        <v>198</v>
+      </c>
+      <c r="D50">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51">
+        <v>198</v>
+      </c>
+      <c r="D51">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52">
+        <v>197</v>
+      </c>
+      <c r="D52">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53">
+        <v>197</v>
+      </c>
+      <c r="D53">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="C54">
+        <v>196</v>
+      </c>
+      <c r="D54">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4">
+      <c r="C55">
+        <v>196</v>
+      </c>
+      <c r="D55">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4">
+      <c r="C56">
+        <v>196</v>
+      </c>
+      <c r="D56">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="C57">
+        <v>196</v>
+      </c>
+      <c r="D57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58">
+        <v>196</v>
+      </c>
+      <c r="D58">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59">
+        <v>195</v>
+      </c>
+      <c r="D59">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60">
+        <v>195</v>
+      </c>
+      <c r="D60">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61">
+        <v>195</v>
+      </c>
+      <c r="D61">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62">
+        <v>195</v>
+      </c>
+      <c r="D62">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4">
+      <c r="C63">
+        <v>195</v>
+      </c>
+      <c r="D63">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4">
+      <c r="C64">
+        <v>194</v>
+      </c>
+      <c r="D64">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65">
+        <v>194</v>
+      </c>
+      <c r="D65">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="C66">
+        <v>193</v>
+      </c>
+      <c r="D66">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="C67">
+        <v>193</v>
+      </c>
+      <c r="D67">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68">
+        <v>193</v>
+      </c>
+      <c r="D68">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="C69">
+        <v>193</v>
+      </c>
+      <c r="D69">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="C70">
+        <v>193</v>
+      </c>
+      <c r="D70">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4">
+      <c r="C71">
+        <v>193</v>
+      </c>
+      <c r="D71">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72">
+        <v>192</v>
+      </c>
+      <c r="D72">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4">
+      <c r="C73">
+        <v>192</v>
+      </c>
+      <c r="D73">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74">
+        <v>192</v>
+      </c>
+      <c r="D74">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75">
+        <v>192</v>
+      </c>
+      <c r="D75">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4">
+      <c r="C76">
+        <v>192</v>
+      </c>
+      <c r="D76">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4">
+      <c r="C77">
+        <v>192</v>
+      </c>
+      <c r="D77">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4">
+      <c r="C78">
+        <v>191</v>
+      </c>
+      <c r="D78">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4">
+      <c r="C79">
+        <v>190</v>
+      </c>
+      <c r="D79">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80">
+        <v>190</v>
+      </c>
+      <c r="D80">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4">
+      <c r="C81">
+        <v>190</v>
+      </c>
+      <c r="D81">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4">
+      <c r="C82">
+        <v>190</v>
+      </c>
+      <c r="D82">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4">
+      <c r="C83">
+        <v>190</v>
+      </c>
+      <c r="D83">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4">
+      <c r="C84">
+        <v>190</v>
+      </c>
+      <c r="D84">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4">
+      <c r="C85">
+        <v>189</v>
+      </c>
+      <c r="D85">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="C86">
+        <v>189</v>
+      </c>
+      <c r="D86">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4">
+      <c r="C87">
+        <v>189</v>
+      </c>
+      <c r="D87">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4">
+      <c r="C88">
+        <v>189</v>
+      </c>
+      <c r="D88">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4">
+      <c r="C89">
+        <v>189</v>
+      </c>
+      <c r="D89">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4">
+      <c r="C90">
+        <v>188</v>
+      </c>
+      <c r="D90">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4">
+      <c r="C91">
+        <v>188</v>
+      </c>
+      <c r="D91">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4">
+      <c r="C92">
+        <v>188</v>
+      </c>
+      <c r="D92">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4">
+      <c r="C93">
+        <v>188</v>
+      </c>
+      <c r="D93">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4">
+      <c r="C94">
+        <v>188</v>
+      </c>
+      <c r="D94">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4">
+      <c r="C95">
+        <v>188</v>
+      </c>
+      <c r="D95">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4">
+      <c r="C96">
+        <v>187</v>
+      </c>
+      <c r="D96">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4">
+      <c r="C97">
+        <v>187</v>
+      </c>
+      <c r="D97">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4">
+      <c r="C98">
+        <v>187</v>
+      </c>
+      <c r="D98">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4">
+      <c r="C99">
+        <v>187</v>
+      </c>
+      <c r="D99">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4">
+      <c r="C100">
+        <v>187</v>
+      </c>
+      <c r="D100">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4">
+      <c r="C101">
+        <v>186</v>
+      </c>
+      <c r="D101">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4">
+      <c r="C102">
+        <v>186</v>
+      </c>
+      <c r="D102">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4">
+      <c r="C103">
+        <v>186</v>
+      </c>
+      <c r="D103">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4">
+      <c r="C104">
+        <v>186</v>
+      </c>
+      <c r="D104">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4">
+      <c r="C105">
+        <v>186</v>
+      </c>
+      <c r="D105">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4">
+      <c r="C106">
+        <v>186</v>
+      </c>
+      <c r="D106">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4">
+      <c r="C107">
+        <v>186</v>
+      </c>
+      <c r="D107">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4">
+      <c r="C108">
+        <v>186</v>
+      </c>
+      <c r="D108">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4">
+      <c r="C109">
+        <v>186</v>
+      </c>
+      <c r="D109">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4">
+      <c r="C110">
+        <v>186</v>
+      </c>
+      <c r="D110">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4">
+      <c r="C111">
+        <v>186</v>
+      </c>
+      <c r="D111">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4">
+      <c r="C112">
+        <v>185</v>
+      </c>
+      <c r="D112">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4">
+      <c r="C113">
+        <v>185</v>
+      </c>
+      <c r="D113">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4">
+      <c r="C114">
+        <v>185</v>
+      </c>
+      <c r="D114">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4">
+      <c r="C115">
+        <v>185</v>
+      </c>
+      <c r="D115">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4">
+      <c r="C116">
+        <v>185</v>
+      </c>
+      <c r="D116">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4">
+      <c r="C117">
+        <v>185</v>
+      </c>
+      <c r="D117">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4">
+      <c r="C118">
+        <v>185</v>
+      </c>
+      <c r="D118">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4">
+      <c r="C119">
+        <v>185</v>
+      </c>
+      <c r="D119">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4">
+      <c r="C120">
+        <v>185</v>
+      </c>
+      <c r="D120">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4">
+      <c r="C121">
+        <v>184</v>
+      </c>
+      <c r="D121">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="122" spans="3:4">
+      <c r="C122">
+        <v>184</v>
+      </c>
+      <c r="D122">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4">
+      <c r="C123">
+        <v>184</v>
+      </c>
+      <c r="D123">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="124" spans="3:4">
+      <c r="C124">
+        <v>184</v>
+      </c>
+      <c r="D124">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4">
+      <c r="C125">
+        <v>184</v>
+      </c>
+      <c r="D125">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4">
+      <c r="C126">
+        <v>184</v>
+      </c>
+      <c r="D126">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4">
+      <c r="C127">
+        <v>183</v>
+      </c>
+      <c r="D127">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="128" spans="3:4">
+      <c r="C128">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3">
+      <c r="C132">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3">
+      <c r="C133">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3">
+      <c r="C135">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3">
+      <c r="C136">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3">
+      <c r="C138">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3">
+      <c r="C139">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3">
+      <c r="C140">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3">
+      <c r="C141">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3">
+      <c r="C143">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3">
+      <c r="C145">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3">
+      <c r="C146">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3">
+      <c r="C150">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3">
+      <c r="C151">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3">
+      <c r="C152">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3">
+      <c r="C153">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3">
+      <c r="C154">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3">
+      <c r="C155">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3">
+      <c r="C156">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3">
+      <c r="C157">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3">
+      <c r="C158">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3">
+      <c r="C159">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3">
+      <c r="C160">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3">
+      <c r="C161">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3">
+      <c r="C162">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3">
+      <c r="C163">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3">
+      <c r="C164">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3">
+      <c r="C165">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3">
+      <c r="C166">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3">
+      <c r="C167">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3">
+      <c r="C168">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3">
+      <c r="C169">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3">
+      <c r="C170">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3">
+      <c r="C171">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3">
+      <c r="C172">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3">
+      <c r="C173">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3">
+      <c r="C174">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3">
+      <c r="C175">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3">
+      <c r="C176">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3">
+      <c r="C177">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3">
+      <c r="C178">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3">
+      <c r="C179">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3">
+      <c r="C180">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3">
+      <c r="C181">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3">
+      <c r="C182">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3">
+      <c r="C183">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3">
+      <c r="C184">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3">
+      <c r="C185">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3">
+      <c r="C186">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3">
+      <c r="C187">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3">
+      <c r="C188">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3">
+      <c r="C189">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3">
+      <c r="C190">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3">
+      <c r="C191">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3">
+      <c r="C192">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3">
+      <c r="C193">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3">
+      <c r="C194">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3">
+      <c r="C195">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3">
+      <c r="C196">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3">
+      <c r="C197">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3">
+      <c r="C198">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3">
+      <c r="C199">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3">
+      <c r="C200">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3">
+      <c r="C201">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3">
+      <c r="C202">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3">
+      <c r="C203">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3">
+      <c r="C204">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3">
+      <c r="C205">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3">
+      <c r="C206">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3">
+      <c r="C207">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3">
+      <c r="C208">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3">
+      <c r="C209">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3">
+      <c r="C210">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3">
+      <c r="C211">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3">
+      <c r="C212">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3">
+      <c r="C213">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3">
+      <c r="C214">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3">
+      <c r="C215">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3">
+      <c r="C216">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3">
+      <c r="C217">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3">
+      <c r="C218">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3">
+      <c r="C219">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3">
+      <c r="C220">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3">
+      <c r="C221">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3">
+      <c r="C222">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3">
+      <c r="C223">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3">
+      <c r="C224">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3">
+      <c r="C225">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3">
+      <c r="C226">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3">
+      <c r="C227">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3">
+      <c r="C228">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3">
+      <c r="C229">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3">
+      <c r="C230">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3">
+      <c r="C231">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3">
+      <c r="C232">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3">
+      <c r="C233">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3">
+      <c r="C234">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3">
+      <c r="C235">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3">
+      <c r="C236">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3">
+      <c r="C237">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3">
+      <c r="C238">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3">
+      <c r="C239">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3">
+      <c r="C240">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3">
+      <c r="C241">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3">
+      <c r="C242">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3">
+      <c r="C243">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3">
+      <c r="C244">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3">
+      <c r="C245">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3">
+      <c r="C246">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3">
+      <c r="C247">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3">
+      <c r="C248">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3">
+      <c r="C249">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3">
+      <c r="C250">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3">
+      <c r="C251">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="252" spans="3:3">
+      <c r="C252">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3">
+      <c r="C253">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3">
+      <c r="C254">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="255" spans="3:3">
+      <c r="C255">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3">
+      <c r="C256">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3">
+      <c r="C257">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3">
+      <c r="C258">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3">
+      <c r="C259">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3">
+      <c r="C260">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3">
+      <c r="C261">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3">
+      <c r="C262">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3">
+      <c r="C263">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="264" spans="3:3">
+      <c r="C264">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="265" spans="3:3">
+      <c r="C265">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3">
+      <c r="C266">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="267" spans="3:3">
+      <c r="C267">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="268" spans="3:3">
+      <c r="C268">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3">
+      <c r="C269">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="270" spans="3:3">
+      <c r="C270">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3">
+      <c r="C271">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3">
+      <c r="C272">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3">
+      <c r="C273">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3">
+      <c r="C274">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3">
+      <c r="C275">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3">
+      <c r="C276">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3">
+      <c r="C277">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3">
+      <c r="C278">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3">
+      <c r="C279">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3">
+      <c r="C280">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3">
+      <c r="C281">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="282" spans="3:3">
+      <c r="C282">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3">
+      <c r="C283">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3">
+      <c r="C284">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3">
+      <c r="C285">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3">
+      <c r="C286">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3">
+      <c r="C287">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="288" spans="3:3">
+      <c r="C288">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3">
+      <c r="C289">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="290" spans="3:3">
+      <c r="C290">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3">
+      <c r="C291">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="292" spans="3:3">
+      <c r="C292">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3">
+      <c r="C293">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="294" spans="3:3">
+      <c r="C294">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="295" spans="3:3">
+      <c r="C295">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3">
+      <c r="C296">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="297" spans="3:3">
+      <c r="C297">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="298" spans="3:3">
+      <c r="C298">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="299" spans="3:3">
+      <c r="C299">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3">
+      <c r="C300">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="301" spans="3:3">
+      <c r="C301">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3">
+      <c r="C302">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3">
+      <c r="C303">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="304" spans="3:3">
+      <c r="C304">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3">
+      <c r="C305">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="306" spans="3:3">
+      <c r="C306">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="307" spans="3:3">
+      <c r="C307">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="308" spans="3:3">
+      <c r="C308">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="309" spans="3:3">
+      <c r="C309">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="310" spans="3:3">
+      <c r="C310">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="311" spans="3:3">
+      <c r="C311">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="312" spans="3:3">
+      <c r="C312">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="313" spans="3:3">
+      <c r="C313">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="314" spans="3:3">
+      <c r="C314">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="315" spans="3:3">
+      <c r="C315">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="316" spans="3:3">
+      <c r="C316">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="317" spans="3:3">
+      <c r="C317">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="318" spans="3:3">
+      <c r="C318">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="319" spans="3:3">
+      <c r="C319">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="320" spans="3:3">
+      <c r="C320">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="321" spans="3:3">
+      <c r="C321">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="322" spans="3:3">
+      <c r="C322">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="323" spans="3:3">
+      <c r="C323">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="324" spans="3:3">
+      <c r="C324">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="325" spans="3:3">
+      <c r="C325">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="326" spans="3:3">
+      <c r="C326">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="327" spans="3:3">
+      <c r="C327">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="328" spans="3:3">
+      <c r="C328">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="329" spans="3:3">
+      <c r="C329">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="330" spans="3:3">
+      <c r="C330">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="331" spans="3:3">
+      <c r="C331">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="332" spans="3:3">
+      <c r="C332">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="333" spans="3:3">
+      <c r="C333">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="334" spans="3:3">
+      <c r="C334">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="335" spans="3:3">
+      <c r="C335">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="336" spans="3:3">
+      <c r="C336">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="337" spans="3:3">
+      <c r="C337">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="338" spans="3:3">
+      <c r="C338">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="339" spans="3:3">
+      <c r="C339">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="340" spans="3:3">
+      <c r="C340">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="341" spans="3:3">
+      <c r="C341">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="342" spans="3:3">
+      <c r="C342">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="343" spans="3:3">
+      <c r="C343">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="344" spans="3:3">
+      <c r="C344">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="345" spans="3:3">
+      <c r="C345">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="346" spans="3:3">
+      <c r="C346">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="347" spans="3:3">
+      <c r="C347">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="348" spans="3:3">
+      <c r="C348">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="349" spans="3:3">
+      <c r="C349">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="350" spans="3:3">
+      <c r="C350">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="351" spans="3:3">
+      <c r="C351">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="352" spans="3:3">
+      <c r="C352">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="353" spans="3:3">
+      <c r="C353">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="354" spans="3:3">
+      <c r="C354">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="355" spans="3:3">
+      <c r="C355">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="356" spans="3:3">
+      <c r="C356">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="357" spans="3:3">
+      <c r="C357">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="358" spans="3:3">
+      <c r="C358">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="359" spans="3:3">
+      <c r="C359">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="360" spans="3:3">
+      <c r="C360">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="361" spans="3:3">
+      <c r="C361">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="362" spans="3:3">
+      <c r="C362">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="363" spans="3:3">
+      <c r="C363">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="364" spans="3:3">
+      <c r="C364">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="365" spans="3:3">
+      <c r="C365">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="366" spans="3:3">
+      <c r="C366">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="367" spans="3:3">
+      <c r="C367">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="368" spans="3:3">
+      <c r="C368">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="369" spans="3:3">
+      <c r="C369">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="370" spans="3:3">
+      <c r="C370">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="371" spans="3:3">
+      <c r="C371">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="372" spans="3:3">
+      <c r="C372">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="373" spans="3:3">
+      <c r="C373">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="374" spans="3:3">
+      <c r="C374">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="375" spans="3:3">
+      <c r="C375">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="376" spans="3:3">
+      <c r="C376">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="377" spans="3:3">
+      <c r="C377">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="378" spans="3:3">
+      <c r="C378">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="379" spans="3:3">
+      <c r="C379">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="380" spans="3:3">
+      <c r="C380">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="381" spans="3:3">
+      <c r="C381">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="382" spans="3:3">
+      <c r="C382">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="383" spans="3:3">
+      <c r="C383">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="384" spans="3:3">
+      <c r="C384">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="385" spans="3:3">
+      <c r="C385">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="386" spans="3:3">
+      <c r="C386">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="387" spans="3:3">
+      <c r="C387">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="388" spans="3:3">
+      <c r="C388">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="389" spans="3:3">
+      <c r="C389">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="390" spans="3:3">
+      <c r="C390">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="391" spans="3:3">
+      <c r="C391">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="392" spans="3:3">
+      <c r="C392">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="393" spans="3:3">
+      <c r="C393">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="394" spans="3:3">
+      <c r="C394">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="395" spans="3:3">
+      <c r="C395">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="396" spans="3:3">
+      <c r="C396">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="397" spans="3:3">
+      <c r="C397">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="398" spans="3:3">
+      <c r="C398">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="399" spans="3:3">
+      <c r="C399">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="400" spans="3:3">
+      <c r="C400">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3">
+      <c r="C401">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="402" spans="3:3">
+      <c r="C402">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="403" spans="3:3">
+      <c r="C403">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3">
+      <c r="C404">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="405" spans="3:3">
+      <c r="C405">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="406" spans="3:3">
+      <c r="C406">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="407" spans="3:3">
+      <c r="C407">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="408" spans="3:3">
+      <c r="C408">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="409" spans="3:3">
+      <c r="C409">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="410" spans="3:3">
+      <c r="C410">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="411" spans="3:3">
+      <c r="C411">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="412" spans="3:3">
+      <c r="C412">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="413" spans="3:3">
+      <c r="C413">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="414" spans="3:3">
+      <c r="C414">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="415" spans="3:3">
+      <c r="C415">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="416" spans="3:3">
+      <c r="C416">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="417" spans="3:3">
+      <c r="C417">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="418" spans="3:3">
+      <c r="C418">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="419" spans="3:3">
+      <c r="C419">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="420" spans="3:3">
+      <c r="C420">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="421" spans="3:3">
+      <c r="C421">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="422" spans="3:3">
+      <c r="C422">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="423" spans="3:3">
+      <c r="C423">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="424" spans="3:3">
+      <c r="C424">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="425" spans="3:3">
+      <c r="C425">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="426" spans="3:3">
+      <c r="C426">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="427" spans="3:3">
+      <c r="C427">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="428" spans="3:3">
+      <c r="C428">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="429" spans="3:3">
+      <c r="C429">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="430" spans="3:3">
+      <c r="C430">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="431" spans="3:3">
+      <c r="C431">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="432" spans="3:3">
+      <c r="C432">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="433" spans="3:3">
+      <c r="C433">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="434" spans="3:3">
+      <c r="C434">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="435" spans="3:3">
+      <c r="C435">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="436" spans="3:3">
+      <c r="C436">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="437" spans="3:3">
+      <c r="C437">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="438" spans="3:3">
+      <c r="C438">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="439" spans="3:3">
+      <c r="C439">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="440" spans="3:3">
+      <c r="C440">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="441" spans="3:3">
+      <c r="C441">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="442" spans="3:3">
+      <c r="C442">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="443" spans="3:3">
+      <c r="C443">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="444" spans="3:3">
+      <c r="C444">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="445" spans="3:3">
+      <c r="C445">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="446" spans="3:3">
+      <c r="C446">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="447" spans="3:3">
+      <c r="C447">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="448" spans="3:3">
+      <c r="C448">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="449" spans="3:3">
+      <c r="C449">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="450" spans="3:3">
+      <c r="C450">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="451" spans="3:3">
+      <c r="C451">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="452" spans="3:3">
+      <c r="C452">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="453" spans="3:3">
+      <c r="C453">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="454" spans="3:3">
+      <c r="C454">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="455" spans="3:3">
+      <c r="C455">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="456" spans="3:3">
+      <c r="C456">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="457" spans="3:3">
+      <c r="C457">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="458" spans="3:3">
+      <c r="C458">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="459" spans="3:3">
+      <c r="C459">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="460" spans="3:3">
+      <c r="C460">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="461" spans="3:3">
+      <c r="C461">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="462" spans="3:3">
+      <c r="C462">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="463" spans="3:3">
+      <c r="C463">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="464" spans="3:3">
+      <c r="C464">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="465" spans="3:3">
+      <c r="C465">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="466" spans="3:3">
+      <c r="C466">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="467" spans="3:3">
+      <c r="C467">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="468" spans="3:3">
+      <c r="C468">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="469" spans="3:3">
+      <c r="C469">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="470" spans="3:3">
+      <c r="C470">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="471" spans="3:3">
+      <c r="C471">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="472" spans="3:3">
+      <c r="C472">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="473" spans="3:3">
+      <c r="C473">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="474" spans="3:3">
+      <c r="C474">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="475" spans="3:3">
+      <c r="C475">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="476" spans="3:3">
+      <c r="C476">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="477" spans="3:3">
+      <c r="C477">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="478" spans="3:3">
+      <c r="C478">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="479" spans="3:3">
+      <c r="C479">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="480" spans="3:3">
+      <c r="C480">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="481" spans="3:3">
+      <c r="C481">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="482" spans="3:3">
+      <c r="C482">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="483" spans="3:3">
+      <c r="C483">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="484" spans="3:3">
+      <c r="C484">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="485" spans="3:3">
+      <c r="C485">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="486" spans="3:3">
+      <c r="C486">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="487" spans="3:3">
+      <c r="C487">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="488" spans="3:3">
+      <c r="C488">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="489" spans="3:3">
+      <c r="C489">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="490" spans="3:3">
+      <c r="C490">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="491" spans="3:3">
+      <c r="C491">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="492" spans="3:3">
+      <c r="C492">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="493" spans="3:3">
+      <c r="C493">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="494" spans="3:3">
+      <c r="C494">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="495" spans="3:3">
+      <c r="C495">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="496" spans="3:3">
+      <c r="C496">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="497" spans="3:3">
+      <c r="C497">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="498" spans="3:3">
+      <c r="C498">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="499" spans="3:3">
+      <c r="C499">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="500" spans="3:3">
+      <c r="C500">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="501" spans="3:3">
+      <c r="C501">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="502" spans="3:3">
+      <c r="C502">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="503" spans="3:3">
+      <c r="C503">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="504" spans="3:3">
+      <c r="C504">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="505" spans="3:3">
+      <c r="C505">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="506" spans="3:3">
+      <c r="C506">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="507" spans="3:3">
+      <c r="C507">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="508" spans="3:3">
+      <c r="C508">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="509" spans="3:3">
+      <c r="C509">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="510" spans="3:3">
+      <c r="C510">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="511" spans="3:3">
+      <c r="C511">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="512" spans="3:3">
+      <c r="C512">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="513" spans="3:3">
+      <c r="C513">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="514" spans="3:3">
+      <c r="C514">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="515" spans="3:3">
+      <c r="C515">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="516" spans="3:3">
+      <c r="C516">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="517" spans="3:3">
+      <c r="C517">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="518" spans="3:3">
+      <c r="C518">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="519" spans="3:3">
+      <c r="C519">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="520" spans="3:3">
+      <c r="C520">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="521" spans="3:3">
+      <c r="C521">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="522" spans="3:3">
+      <c r="C522">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="523" spans="3:3">
+      <c r="C523">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="524" spans="3:3">
+      <c r="C524">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="525" spans="3:3">
+      <c r="C525">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="526" spans="3:3">
+      <c r="C526">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="527" spans="3:3">
+      <c r="C527">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="528" spans="3:3">
+      <c r="C528">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="529" spans="3:3">
+      <c r="C529">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="530" spans="3:3">
+      <c r="C530">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="531" spans="3:3">
+      <c r="C531">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="532" spans="3:3">
+      <c r="C532">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="533" spans="3:3">
+      <c r="C533">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="534" spans="3:3">
+      <c r="C534">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="535" spans="3:3">
+      <c r="C535">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="536" spans="3:3">
+      <c r="C536">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="537" spans="3:3">
+      <c r="C537">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="538" spans="3:3">
+      <c r="C538">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="539" spans="3:3">
+      <c r="C539">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="540" spans="3:3">
+      <c r="C540">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="541" spans="3:3">
+      <c r="C541">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="542" spans="3:3">
+      <c r="C542">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="543" spans="3:3">
+      <c r="C543">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="544" spans="3:3">
+      <c r="C544">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="545" spans="3:3">
+      <c r="C545">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="546" spans="3:3">
+      <c r="C546">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="547" spans="3:3">
+      <c r="C547">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="548" spans="3:3">
+      <c r="C548">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="549" spans="3:3">
+      <c r="C549">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="550" spans="3:3">
+      <c r="C550">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="551" spans="3:3">
+      <c r="C551">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="552" spans="3:3">
+      <c r="C552">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="553" spans="3:3">
+      <c r="C553">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="554" spans="3:3">
+      <c r="C554">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="555" spans="3:3">
+      <c r="C555">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="556" spans="3:3">
+      <c r="C556">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="557" spans="3:3">
+      <c r="C557">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="558" spans="3:3">
+      <c r="C558">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="559" spans="3:3">
+      <c r="C559">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="560" spans="3:3">
+      <c r="C560">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="561" spans="3:3">
+      <c r="C561">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="562" spans="3:3">
+      <c r="C562">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="563" spans="3:3">
+      <c r="C563">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="564" spans="3:3">
+      <c r="C564">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="565" spans="3:3">
+      <c r="C565">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="566" spans="3:3">
+      <c r="C566">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="567" spans="3:3">
+      <c r="C567">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="568" spans="3:3">
+      <c r="C568">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="569" spans="3:3">
+      <c r="C569">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="570" spans="3:3">
+      <c r="C570">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="571" spans="3:3">
+      <c r="C571">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="572" spans="3:3">
+      <c r="C572">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="573" spans="3:3">
+      <c r="C573">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="574" spans="3:3">
+      <c r="C574">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="575" spans="3:3">
+      <c r="C575">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="576" spans="3:3">
+      <c r="C576">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="577" spans="3:3">
+      <c r="C577">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="578" spans="3:3">
+      <c r="C578">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="579" spans="3:3">
+      <c r="C579">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="580" spans="3:3">
+      <c r="C580">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="581" spans="3:3">
+      <c r="C581">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="582" spans="3:3">
+      <c r="C582">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="583" spans="3:3">
+      <c r="C583">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="584" spans="3:3">
+      <c r="C584">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="585" spans="3:3">
+      <c r="C585">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="586" spans="3:3">
+      <c r="C586">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="587" spans="3:3">
+      <c r="C587">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="588" spans="3:3">
+      <c r="C588">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="589" spans="3:3">
+      <c r="C589">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="590" spans="3:3">
+      <c r="C590">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="591" spans="3:3">
+      <c r="C591">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="592" spans="3:3">
+      <c r="C592">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="593" spans="3:3">
+      <c r="C593">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="594" spans="3:3">
+      <c r="C594">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="595" spans="3:3">
+      <c r="C595">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="596" spans="3:3">
+      <c r="C596">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="597" spans="3:3">
+      <c r="C597">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="598" spans="3:3">
+      <c r="C598">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="599" spans="3:3">
+      <c r="C599">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="600" spans="3:3">
+      <c r="C600">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="601" spans="3:3">
+      <c r="C601">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="602" spans="3:3">
+      <c r="C602">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="603" spans="3:3">
+      <c r="C603">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="604" spans="3:3">
+      <c r="C604">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="605" spans="3:3">
+      <c r="C605">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="606" spans="3:3">
+      <c r="C606">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="607" spans="3:3">
+      <c r="C607">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="608" spans="3:3">
+      <c r="C608">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="609" spans="3:3">
+      <c r="C609">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="610" spans="3:3">
+      <c r="C610">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="611" spans="3:3">
+      <c r="C611">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="612" spans="3:3">
+      <c r="C612">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="613" spans="3:3">
+      <c r="C613">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="614" spans="3:3">
+      <c r="C614">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="615" spans="3:3">
+      <c r="C615">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="616" spans="3:3">
+      <c r="C616">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="617" spans="3:3">
+      <c r="C617">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="618" spans="3:3">
+      <c r="C618">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="619" spans="3:3">
+      <c r="C619">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="620" spans="3:3">
+      <c r="C620">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="621" spans="3:3">
+      <c r="C621">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="622" spans="3:3">
+      <c r="C622">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="623" spans="3:3">
+      <c r="C623">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="624" spans="3:3">
+      <c r="C624">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="625" spans="3:3">
+      <c r="C625">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="626" spans="3:3">
+      <c r="C626">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="627" spans="3:3">
+      <c r="C627">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="628" spans="3:3">
+      <c r="C628">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="629" spans="3:3">
+      <c r="C629">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="630" spans="3:3">
+      <c r="C630">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="631" spans="3:3">
+      <c r="C631">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="632" spans="3:3">
+      <c r="C632">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="633" spans="3:3">
+      <c r="C633">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="634" spans="3:3">
+      <c r="C634">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="635" spans="3:3">
+      <c r="C635">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="636" spans="3:3">
+      <c r="C636">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="637" spans="3:3">
+      <c r="C637">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="638" spans="3:3">
+      <c r="C638">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="639" spans="3:3">
+      <c r="C639">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="640" spans="3:3">
+      <c r="C640">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="641" spans="3:3">
+      <c r="C641">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="642" spans="3:3">
+      <c r="C642">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="643" spans="3:3">
+      <c r="C643">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="644" spans="3:3">
+      <c r="C644">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="645" spans="3:3">
+      <c r="C645">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="646" spans="3:3">
+      <c r="C646">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="647" spans="3:3">
+      <c r="C647">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="648" spans="3:3">
+      <c r="C648">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="649" spans="3:3">
+      <c r="C649">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="650" spans="3:3">
+      <c r="C650">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="651" spans="3:3">
+      <c r="C651">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="652" spans="3:3">
+      <c r="C652">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="653" spans="3:3">
+      <c r="C653">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="654" spans="3:3">
+      <c r="C654">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="655" spans="3:3">
+      <c r="C655">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="656" spans="3:3">
+      <c r="C656">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="657" spans="3:3">
+      <c r="C657">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="658" spans="3:3">
+      <c r="C658">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="659" spans="3:3">
+      <c r="C659">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="660" spans="3:3">
+      <c r="C660">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="661" spans="3:3">
+      <c r="C661">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="662" spans="3:3">
+      <c r="C662">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="663" spans="3:3">
+      <c r="C663">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="664" spans="3:3">
+      <c r="C664">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="665" spans="3:3">
+      <c r="C665">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="666" spans="3:3">
+      <c r="C666">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="667" spans="3:3">
+      <c r="C667">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="668" spans="3:3">
+      <c r="C668">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="669" spans="3:3">
+      <c r="C669">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="670" spans="3:3">
+      <c r="C670">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="671" spans="3:3">
+      <c r="C671">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="672" spans="3:3">
+      <c r="C672">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="673" spans="3:3">
+      <c r="C673">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="674" spans="3:3">
+      <c r="C674">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="675" spans="3:3">
+      <c r="C675">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="676" spans="3:3">
+      <c r="C676">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="677" spans="3:3">
+      <c r="C677">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="678" spans="3:3">
+      <c r="C678">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="679" spans="3:3">
+      <c r="C679">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="680" spans="3:3">
+      <c r="C680">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="681" spans="3:3">
+      <c r="C681">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="682" spans="3:3">
+      <c r="C682">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="683" spans="3:3">
+      <c r="C683">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="684" spans="3:3">
+      <c r="C684">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="685" spans="3:3">
+      <c r="C685">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="686" spans="3:3">
+      <c r="C686">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="687" spans="3:3">
+      <c r="C687">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="688" spans="3:3">
+      <c r="C688">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="689" spans="3:3">
+      <c r="C689">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="690" spans="3:3">
+      <c r="C690">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="691" spans="3:3">
+      <c r="C691">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="692" spans="3:3">
+      <c r="C692">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="693" spans="3:3">
+      <c r="C693">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="694" spans="3:3">
+      <c r="C694">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="695" spans="3:3">
+      <c r="C695">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="696" spans="3:3">
+      <c r="C696">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="697" spans="3:3">
+      <c r="C697">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="698" spans="3:3">
+      <c r="C698">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="699" spans="3:3">
+      <c r="C699">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="700" spans="3:3">
+      <c r="C700">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="701" spans="3:3">
+      <c r="C701">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="702" spans="3:3">
+      <c r="C702">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="703" spans="3:3">
+      <c r="C703">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="704" spans="3:3">
+      <c r="C704">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="705" spans="3:3">
+      <c r="C705">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="706" spans="3:3">
+      <c r="C706">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="707" spans="3:3">
+      <c r="C707">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="708" spans="3:3">
+      <c r="C708">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="709" spans="3:3">
+      <c r="C709">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="710" spans="3:3">
+      <c r="C710">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="711" spans="3:3">
+      <c r="C711">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="712" spans="3:3">
+      <c r="C712">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="713" spans="3:3">
+      <c r="C713">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="714" spans="3:3">
+      <c r="C714">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="715" spans="3:3">
+      <c r="C715">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="716" spans="3:3">
+      <c r="C716">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="717" spans="3:3">
+      <c r="C717">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="718" spans="3:3">
+      <c r="C718">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="719" spans="3:3">
+      <c r="C719">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="720" spans="3:3">
+      <c r="C720">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="721" spans="3:3">
+      <c r="C721">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="722" spans="3:3">
+      <c r="C722">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="723" spans="3:3">
+      <c r="C723">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="724" spans="3:3">
+      <c r="C724">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="725" spans="3:3">
+      <c r="C725">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="726" spans="3:3">
+      <c r="C726">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="727" spans="3:3">
+      <c r="C727">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="728" spans="3:3">
+      <c r="C728">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="729" spans="3:3">
+      <c r="C729">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="730" spans="3:3">
+      <c r="C730">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="731" spans="3:3">
+      <c r="C731">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="732" spans="3:3">
+      <c r="C732">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="733" spans="3:3">
+      <c r="C733">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="734" spans="3:3">
+      <c r="C734">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="735" spans="3:3">
+      <c r="C735">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="736" spans="3:3">
+      <c r="C736">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="737" spans="3:3">
+      <c r="C737">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="738" spans="3:3">
+      <c r="C738">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="739" spans="3:3">
+      <c r="C739">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="740" spans="3:3">
+      <c r="C740">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="741" spans="3:3">
+      <c r="C741">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="742" spans="3:3">
+      <c r="C742">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="743" spans="3:3">
+      <c r="C743">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="744" spans="3:3">
+      <c r="C744">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="745" spans="3:3">
+      <c r="C745">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="746" spans="3:3">
+      <c r="C746">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="747" spans="3:3">
+      <c r="C747">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="748" spans="3:3">
+      <c r="C748">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="749" spans="3:3">
+      <c r="C749">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="750" spans="3:3">
+      <c r="C750">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="751" spans="3:3">
+      <c r="C751">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="752" spans="3:3">
+      <c r="C752">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="753" spans="3:3">
+      <c r="C753">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="754" spans="3:3">
+      <c r="C754">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="755" spans="3:3">
+      <c r="C755">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="756" spans="3:3">
+      <c r="C756">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="757" spans="3:3">
+      <c r="C757">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="758" spans="3:3">
+      <c r="C758">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="759" spans="3:3">
+      <c r="C759">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="760" spans="3:3">
+      <c r="C760">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="761" spans="3:3">
+      <c r="C761">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="762" spans="3:3">
+      <c r="C762">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="763" spans="3:3">
+      <c r="C763">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="764" spans="3:3">
+      <c r="C764">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="765" spans="3:3">
+      <c r="C765">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="766" spans="3:3">
+      <c r="C766">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="767" spans="3:3">
+      <c r="C767">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="768" spans="3:3">
+      <c r="C768">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="769" spans="3:3">
+      <c r="C769">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="770" spans="3:3">
+      <c r="C770">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="771" spans="3:3">
+      <c r="C771">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="772" spans="3:3">
+      <c r="C772">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="773" spans="3:3">
+      <c r="C773">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="774" spans="3:3">
+      <c r="C774">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="775" spans="3:3">
+      <c r="C775">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="776" spans="3:3">
+      <c r="C776">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="777" spans="3:3">
+      <c r="C777">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="778" spans="3:3">
+      <c r="C778">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="779" spans="3:3">
+      <c r="C779">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="780" spans="3:3">
+      <c r="C780">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="781" spans="3:3">
+      <c r="C781">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="782" spans="3:3">
+      <c r="C782">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="783" spans="3:3">
+      <c r="C783">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="784" spans="3:3">
+      <c r="C784">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="785" spans="3:3">
+      <c r="C785">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="786" spans="3:3">
+      <c r="C786">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="787" spans="3:3">
+      <c r="C787">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="788" spans="3:3">
+      <c r="C788">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="789" spans="3:3">
+      <c r="C789">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="790" spans="3:3">
+      <c r="C790">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="791" spans="3:3">
+      <c r="C791">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="792" spans="3:3">
+      <c r="C792">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="793" spans="3:3">
+      <c r="C793">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="794" spans="3:3">
+      <c r="C794">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="795" spans="3:3">
+      <c r="C795">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="796" spans="3:3">
+      <c r="C796">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="797" spans="3:3">
+      <c r="C797">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="798" spans="3:3">
+      <c r="C798">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="799" spans="3:3">
+      <c r="C799">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="800" spans="3:3">
+      <c r="C800">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="801" spans="3:3">
+      <c r="C801">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="802" spans="3:3">
+      <c r="C802">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="803" spans="3:3">
+      <c r="C803">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="804" spans="3:3">
+      <c r="C804">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="805" spans="3:3">
+      <c r="C805">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="806" spans="3:3">
+      <c r="C806">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="807" spans="3:3">
+      <c r="C807">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="808" spans="3:3">
+      <c r="C808">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="809" spans="3:3">
+      <c r="C809">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="810" spans="3:3">
+      <c r="C810">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="811" spans="3:3">
+      <c r="C811">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="812" spans="3:3">
+      <c r="C812">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="813" spans="3:3">
+      <c r="C813">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="814" spans="3:3">
+      <c r="C814">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="815" spans="3:3">
+      <c r="C815">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="816" spans="3:3">
+      <c r="C816">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="817" spans="3:3">
+      <c r="C817">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="818" spans="3:3">
+      <c r="C818">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="819" spans="3:3">
+      <c r="C819">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="820" spans="3:3">
+      <c r="C820">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="821" spans="3:3">
+      <c r="C821">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="822" spans="3:3">
+      <c r="C822">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="823" spans="3:3">
+      <c r="C823">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="824" spans="3:3">
+      <c r="C824">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="825" spans="3:3">
+      <c r="C825">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="826" spans="3:3">
+      <c r="C826">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="827" spans="3:3">
+      <c r="C827">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="828" spans="3:3">
+      <c r="C828">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="829" spans="3:3">
+      <c r="C829">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="830" spans="3:3">
+      <c r="C830">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="831" spans="3:3">
+      <c r="C831">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="832" spans="3:3">
+      <c r="C832">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="833" spans="3:3">
+      <c r="C833">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="834" spans="3:3">
+      <c r="C834">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="835" spans="3:3">
+      <c r="C835">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="836" spans="3:3">
+      <c r="C836">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="837" spans="3:3">
+      <c r="C837">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="838" spans="3:3">
+      <c r="C838">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="839" spans="3:3">
+      <c r="C839">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="840" spans="3:3">
+      <c r="C840">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="841" spans="3:3">
+      <c r="C841">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="C1:G841">
+    <sortCondition descending="1" ref="G1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="33900" yWindow="-10340" windowWidth="29240" windowHeight="18440" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="7880" yWindow="0" windowWidth="27860" windowHeight="19160" tabRatio="584" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,6 @@
     <t>Depth</t>
   </si>
   <si>
-    <t>Depth-First Scalability Generation</t>
-  </si>
-  <si>
-    <t>Width-First Scalability Generation</t>
-  </si>
-  <si>
     <t>Update Time</t>
   </si>
   <si>
@@ -64,6 +58,12 @@
   </si>
   <si>
     <t>avg</t>
+  </si>
+  <si>
+    <t>Scalability of Wide Models</t>
+  </si>
+  <si>
+    <t>Scalability of Deep Models</t>
   </si>
 </sst>
 </file>
@@ -1007,11 +1007,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2105310792"/>
-        <c:axId val="-2105313784"/>
+        <c:axId val="2130453800"/>
+        <c:axId val="2129633128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2105310792"/>
+        <c:axId val="2130453800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,7 +1021,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2105313784"/>
+        <c:crossAx val="2129633128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1029,7 +1029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2105313784"/>
+        <c:axId val="2129633128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1040,7 +1040,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2105310792"/>
+        <c:crossAx val="2130453800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1100,13 +1100,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Width-First Scalability Generation</c:v>
+                  <c:v>Scalability of Wide Models</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:trendline>
-            <c:name>Linear Regression (Width-First)</c:name>
+            <c:name>Linear Regression (Wide)</c:name>
             <c:spPr>
               <a:ln w="44450">
                 <a:solidFill>
@@ -1337,13 +1337,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Depth-First Scalability Generation</c:v>
+                  <c:v>Scalability of Deep Models</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:trendline>
-            <c:name>Linear Regression (Depth-First)</c:name>
+            <c:name>Linear Regression (Deep)</c:name>
             <c:spPr>
               <a:ln w="44450">
                 <a:solidFill>
@@ -1575,11 +1575,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2105400040"/>
-        <c:axId val="-2105405368"/>
+        <c:axId val="-2136745704"/>
+        <c:axId val="2128725960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2105400040"/>
+        <c:axId val="-2136745704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1619,7 +1619,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2105405368"/>
+        <c:crossAx val="2128725960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1628,7 +1628,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2105405368"/>
+        <c:axId val="2128725960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1665,7 +1665,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2105400040"/>
+        <c:crossAx val="-2136745704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0"/>
@@ -1746,7 +1746,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Width-First Scalability Generation</c:v>
+                  <c:v>Scalability of Wide Models</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1969,7 +1969,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Depth-First Scalability Generation</c:v>
+                  <c:v>Scalability of Deep Models</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2193,11 +2193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2133063096"/>
-        <c:axId val="2133737672"/>
+        <c:axId val="2130513736"/>
+        <c:axId val="2130519384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2133063096"/>
+        <c:axId val="2130513736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2237,7 +2237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133737672"/>
+        <c:crossAx val="2130519384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2246,7 +2246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133737672"/>
+        <c:axId val="2130519384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2273,13 +2273,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133063096"/>
+        <c:crossAx val="2130513736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -2550,11 +2551,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2122882024"/>
-        <c:axId val="-2122876552"/>
+        <c:axId val="2130559560"/>
+        <c:axId val="2130565096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2122882024"/>
+        <c:axId val="2130559560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2590,7 +2591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122876552"/>
+        <c:crossAx val="2130565096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2598,7 +2599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122876552"/>
+        <c:axId val="2130565096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2635,7 +2636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122882024"/>
+        <c:crossAx val="2130559560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -3610,8 +3611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3624,13 +3625,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4076,8 +4077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4087,13 +4088,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4550,13 +4551,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D1" s="3"/>
     </row>
@@ -4715,7 +4716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -4726,16 +4727,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7880" yWindow="0" windowWidth="27860" windowHeight="19160" tabRatio="584" activeTab="2"/>
+    <workbookView xWindow="9360" yWindow="1700" windowWidth="27860" windowHeight="19160" tabRatio="584" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1007,11 +1007,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2130453800"/>
-        <c:axId val="2129633128"/>
+        <c:axId val="2087942104"/>
+        <c:axId val="2087939112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2130453800"/>
+        <c:axId val="2087942104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,7 +1021,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129633128"/>
+        <c:crossAx val="2087939112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1029,7 +1029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129633128"/>
+        <c:axId val="2087939112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1040,13 +1040,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130453800"/>
+        <c:crossAx val="2087942104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1575,11 +1576,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2136745704"/>
-        <c:axId val="2128725960"/>
+        <c:axId val="2087884872"/>
+        <c:axId val="2087879288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2136745704"/>
+        <c:axId val="2087884872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1619,7 +1620,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128725960"/>
+        <c:crossAx val="2087879288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1628,7 +1629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128725960"/>
+        <c:axId val="2087879288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1665,7 +1666,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136745704"/>
+        <c:crossAx val="2087884872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0"/>
@@ -2193,11 +2194,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2130513736"/>
-        <c:axId val="2130519384"/>
+        <c:axId val="2087837048"/>
+        <c:axId val="2087831400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2130513736"/>
+        <c:axId val="2087837048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2237,7 +2238,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130519384"/>
+        <c:crossAx val="2087831400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2246,7 +2247,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130519384"/>
+        <c:axId val="2087831400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2280,7 +2281,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130513736"/>
+        <c:crossAx val="2087837048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -2343,10 +2344,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.123574073108411"/>
+          <c:x val="0.0625984251968504"/>
           <c:y val="0.0601851851851852"/>
-          <c:w val="0.840590811910101"/>
-          <c:h val="0.792241359738289"/>
+          <c:w val="0.901566374325161"/>
+          <c:h val="0.818453679528591"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2551,11 +2552,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2130559560"/>
-        <c:axId val="2130565096"/>
+        <c:axId val="2087791272"/>
+        <c:axId val="2087785720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2130559560"/>
+        <c:axId val="2087791272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2581,8 +2582,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.23898228781005"/>
-              <c:y val="0.90914376528622"/>
+              <c:x val="0.313507991379126"/>
+              <c:y val="0.927492389139431"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2591,7 +2592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130565096"/>
+        <c:crossAx val="2087785720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2599,7 +2600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130565096"/>
+        <c:axId val="2087785720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2626,7 +2627,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.016261667622673"/>
+              <c:x val="0.00406653436613106"/>
               <c:y val="0.339046655865265"/>
             </c:manualLayout>
           </c:layout>
@@ -2636,7 +2637,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130559560"/>
+        <c:crossAx val="2087791272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -2651,9 +2652,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.151083242078184"/>
-          <c:y val="0.162096159998349"/>
+          <c:y val="0.217142031557982"/>
           <c:w val="0.405530409692166"/>
-          <c:h val="0.163352700178533"/>
+          <c:h val="0.1083068286189"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2725,8 +2726,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -2795,8 +2796,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -4077,7 +4078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4543,8 +4544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="1700" windowWidth="27860" windowHeight="19160" tabRatio="584" activeTab="3"/>
+    <workbookView xWindow="-29040" yWindow="2100" windowWidth="25600" windowHeight="16060" tabRatio="584" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1007,11 +1007,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2087942104"/>
-        <c:axId val="2087939112"/>
+        <c:axId val="2122855496"/>
+        <c:axId val="2122857912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2087942104"/>
+        <c:axId val="2122855496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,7 +1021,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087939112"/>
+        <c:crossAx val="2122857912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1029,7 +1029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2087939112"/>
+        <c:axId val="2122857912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1040,14 +1040,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087942104"/>
+        <c:crossAx val="2122855496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1576,11 +1575,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2087884872"/>
-        <c:axId val="2087879288"/>
+        <c:axId val="2125142312"/>
+        <c:axId val="2126056312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2087884872"/>
+        <c:axId val="2125142312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,11 +1615,11 @@
           </c:layout>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087879288"/>
+        <c:crossAx val="2126056312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1629,7 +1628,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2087879288"/>
+        <c:axId val="2126056312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1666,7 +1665,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087884872"/>
+        <c:crossAx val="2125142312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0"/>
@@ -2194,11 +2193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2087837048"/>
-        <c:axId val="2087831400"/>
+        <c:axId val="2125199128"/>
+        <c:axId val="2125204760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2087837048"/>
+        <c:axId val="2125199128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2238,7 +2237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087831400"/>
+        <c:crossAx val="2125204760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2247,7 +2246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2087831400"/>
+        <c:axId val="2125204760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2274,14 +2273,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087837048"/>
+        <c:crossAx val="2125199128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -2552,11 +2550,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2087791272"/>
-        <c:axId val="2087785720"/>
+        <c:axId val="2125244904"/>
+        <c:axId val="2125250440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2087791272"/>
+        <c:axId val="2125244904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2592,7 +2590,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087785720"/>
+        <c:crossAx val="2125250440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2600,7 +2598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2087785720"/>
+        <c:axId val="2125250440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2637,7 +2635,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087791272"/>
+        <c:crossAx val="2125244904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -3612,7 +3610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4544,7 +4542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
